--- a/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/спрос_29-8-2024 макс10дней с 19-8-2024 по 29-8-2024_sorted.xlsx
+++ b/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/спрос_29-8-2024 макс10дней с 19-8-2024 по 29-8-2024_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -40,12 +40,15 @@
     <t xml:space="preserve">сумма</t>
   </si>
   <si>
+    <t xml:space="preserve">Num_Copies_old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
   </si>
   <si>
-    <t xml:space="preserve">Тип упорядочить</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Аниме Девочка с черным капюшоном</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Хаги Ваги Голова и надпись</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
@@ -317,19 +317,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -354,10 +356,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.1</v>
@@ -378,12 +386,19 @@
         <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2-4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.6</v>
@@ -404,12 +419,19 @@
         <v>10</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3-4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.5</v>
@@ -430,12 +452,19 @@
         <v>8</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.4</v>
@@ -456,12 +485,19 @@
         <v>4</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5-4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.5</v>
@@ -482,12 +518,19 @@
         <v>8</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.3</v>
@@ -508,12 +551,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7-4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.5</v>
@@ -534,12 +584,19 @@
         <v>6</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">J8-4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.3</v>
@@ -560,12 +617,19 @@
         <v>6</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">J9-4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.4</v>
@@ -586,12 +650,19 @@
         <v>4</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10-4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.2</v>
@@ -612,12 +683,19 @@
         <v>4</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11-4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.2</v>
@@ -638,12 +716,19 @@
         <v>4</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12-4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.2</v>
@@ -664,12 +749,19 @@
         <v>2</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13-4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.1</v>
@@ -690,12 +782,19 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14-4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.3</v>
@@ -716,12 +815,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15-4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -742,16 +848,23 @@
         <v>28</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">G16/4</f>
         <v>7</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">J16-4</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.1</v>
@@ -772,16 +885,23 @@
         <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="n">
         <f aca="false">G17/4</f>
         <v>6</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">J17-4</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.1</v>
@@ -802,16 +922,23 @@
         <v>16</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="n">
         <f aca="false">G18/4</f>
         <v>4</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">J18-4</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1.1</v>
@@ -832,16 +959,23 @@
         <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">G19/4</f>
         <v>3</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19-4</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.5</v>
@@ -862,16 +996,23 @@
         <v>8</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">G20/4</f>
         <v>2</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20-4</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.8</v>
@@ -892,16 +1033,23 @@
         <v>8</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">G21/4</f>
         <v>2</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">J21-4</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.6</v>
@@ -922,16 +1070,23 @@
         <v>8</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">G22/4</f>
         <v>2</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">J22-4</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.6</v>
@@ -952,16 +1107,23 @@
         <v>4</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">G23/4</f>
         <v>1</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">J23-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.3</v>
@@ -982,28 +1144,35 @@
         <v>4</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="n">
         <f aca="false">G24/4</f>
         <v>1</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">J24-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>739</v>
@@ -1012,22 +1181,29 @@
         <v>4</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">G25/4</f>
         <v>1</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>20</v>
@@ -1038,26 +1214,33 @@
       <c r="F26" s="0" t="n">
         <v>739</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">G26/4</f>
         <v>1</v>
       </c>
+      <c r="J26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">J26-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>20</v>
@@ -1072,22 +1255,29 @@
         <v>4</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">G27/4</f>
         <v>1</v>
       </c>
+      <c r="J27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">J27-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>20</v>
@@ -1102,16 +1292,23 @@
         <v>4</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">G28/4</f>
         <v>1</v>
       </c>
+      <c r="J28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">J28-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.3</v>
@@ -1132,16 +1329,23 @@
         <v>4</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2" t="n">
         <f aca="false">G29/4</f>
         <v>1</v>
       </c>
+      <c r="J29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">J29-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.3</v>
@@ -1162,28 +1366,35 @@
         <v>4</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">G30/4</f>
         <v>1</v>
       </c>
+      <c r="J30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">J30-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>739</v>
@@ -1192,22 +1403,29 @@
         <v>4</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="2" t="n">
         <f aca="false">G31/4</f>
         <v>1</v>
       </c>
+      <c r="J31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">J31-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>20</v>
@@ -1222,16 +1440,23 @@
         <v>4</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">G32/4</f>
         <v>1</v>
       </c>
+      <c r="J32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">J32-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.5</v>
@@ -1252,22 +1477,29 @@
         <v>4</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">G33/4</f>
         <v>1</v>
       </c>
+      <c r="J33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">J33-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>20</v>
@@ -1282,19 +1514,26 @@
         <v>4</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="n">
         <f aca="false">G34/4</f>
         <v>1</v>
       </c>
+      <c r="J34" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">J34-4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>5</v>
@@ -1303,37 +1542,40 @@
         <v>20</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>739</v>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>4</v>
+      <c r="G35" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <f aca="false">G35/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">J35-4</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>739</v>
@@ -1344,140 +1586,182 @@
       <c r="H36" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">J36-4</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">J37-4</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">J38-4</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">J39-4</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">J40-4</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">J41-4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2.6</v>
@@ -1500,100 +1784,128 @@
       <c r="H42" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">J42-4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">J43-4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>739</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">J44-4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>739</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">J45-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>739</v>
@@ -1604,39 +1916,29 @@
       <c r="H46" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>739</v>
-      </c>
+      <c r="J46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">J46-4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="0" t="n">
-        <f aca="false">SUM(G2:G47)</f>
-        <v>760</v>
-      </c>
-    </row>
+        <f aca="false">SUM(G2:G46)</f>
+        <v>756</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">SUM(J2:J46)</f>
+        <v>756</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">SUM(K2:K46)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
